--- a/public/uploads/phone/file.xlsx
+++ b/public/uploads/phone/file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Số điện thoại</t>
   </si>
@@ -24,28 +24,19 @@
     <t>Số tiền cần nạp</t>
   </si>
   <si>
-    <t>Nhà mạng</t>
-  </si>
-  <si>
     <t>Loại thuê bao</t>
   </si>
   <si>
-    <t>400,000 đ</t>
-  </si>
-  <si>
-    <t>VTT</t>
-  </si>
-  <si>
-    <t>PREPAID</t>
-  </si>
-  <si>
-    <t>300,000 đ</t>
-  </si>
-  <si>
-    <t>200,000 đ</t>
-  </si>
-  <si>
-    <t>POSTPAID</t>
+    <t>TRATRUOC</t>
+  </si>
+  <si>
+    <t>0964953029</t>
+  </si>
+  <si>
+    <t>0963807596</t>
+  </si>
+  <si>
+    <t>01639653756</t>
   </si>
 </sst>
 </file>
@@ -81,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,22 +376,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -408,54 +399,43 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>400000</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>964953029</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3">
+        <v>300000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>963807596</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1639653756</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4">
+        <v>200000</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
